--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/recharge/RechargeFirstBankCard.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/recharge/RechargeFirstBankCard.xlsx
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pictureVerification</t>
   </si>
   <si>
@@ -81,10 +77,6 @@
   </si>
   <si>
     <t>environment</t>
-  </si>
-  <si>
-    <t>sit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>realName</t>
@@ -394,13 +386,20 @@
   <si>
     <t>${BankCardUtils.getUnUsedBankCard(622568683546)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${MobileUtil.getUnRegisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${EnvUtils.getEnv()}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +413,11 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Monaco"/>
     </font>
   </fonts>
   <fills count="2">
@@ -436,9 +440,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -746,14 +751,14 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
     <col min="5" max="5" width="31.1640625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
@@ -774,55 +779,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
         <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" t="s">
-        <v>20</v>
       </c>
       <c r="S1" t="s">
         <v>2</v>
@@ -836,55 +841,55 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T2" t="s">
         <v>6</v>
@@ -895,55 +900,55 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T3" t="s">
         <v>6</v>
@@ -954,55 +959,55 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T4" t="s">
         <v>6</v>
@@ -1013,55 +1018,55 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T5" t="s">
         <v>6</v>
@@ -1072,55 +1077,55 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T6" t="s">
         <v>6</v>
@@ -1131,55 +1136,55 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T7" t="s">
         <v>6</v>
@@ -1190,55 +1195,55 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T8" t="s">
         <v>6</v>
@@ -1249,55 +1254,55 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T9" t="s">
         <v>6</v>
@@ -1308,55 +1313,55 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T10" t="s">
         <v>6</v>
@@ -1367,55 +1372,55 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T11" t="s">
         <v>6</v>
@@ -1426,55 +1431,55 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T12" t="s">
         <v>6</v>
@@ -1485,55 +1490,55 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T13" t="s">
         <v>6</v>
@@ -1544,55 +1549,55 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T14" t="s">
         <v>6</v>
@@ -1603,55 +1608,55 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T15" t="s">
         <v>6</v>
@@ -1662,55 +1667,55 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Q16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T16" t="s">
         <v>6</v>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/recharge/RechargeFirstBankCard.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/recharge/RechargeFirstBankCard.xlsx
@@ -130,13 +130,6 @@
     <t>testcaseDescription</t>
   </si>
   <si>
-    <t>充值</t>
-    <rPh sb="0" eb="1">
-      <t>ch'zh</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>idCard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,6 +386,19 @@
   </si>
   <si>
     <t>${EnvUtils.getEnv()}</t>
+  </si>
+  <si>
+    <t>先绑卡后充值</t>
+    <rPh sb="0" eb="1">
+      <t>xian'bang'k</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ch'zh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -751,7 +757,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -800,7 +806,7 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -809,10 +815,10 @@
         <v>14</v>
       </c>
       <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
         <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
       </c>
       <c r="N1" t="s">
         <v>15</v>
@@ -824,7 +830,7 @@
         <v>17</v>
       </c>
       <c r="Q1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R1" t="s">
         <v>18</v>
@@ -841,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
@@ -868,13 +874,13 @@
         <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>21</v>
@@ -886,10 +892,10 @@
         <v>23</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s">
         <v>6</v>
@@ -900,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -927,13 +933,13 @@
         <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>21</v>
@@ -945,10 +951,10 @@
         <v>23</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s">
         <v>6</v>
@@ -959,16 +965,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
@@ -986,13 +992,13 @@
         <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>21</v>
@@ -1004,10 +1010,10 @@
         <v>23</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T4" t="s">
         <v>6</v>
@@ -1018,16 +1024,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -1045,13 +1051,13 @@
         <v>20</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>21</v>
@@ -1063,10 +1069,10 @@
         <v>23</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T5" t="s">
         <v>6</v>
@@ -1077,16 +1083,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -1104,13 +1110,13 @@
         <v>20</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>21</v>
@@ -1122,10 +1128,10 @@
         <v>23</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T6" t="s">
         <v>6</v>
@@ -1136,16 +1142,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -1163,13 +1169,13 @@
         <v>20</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>21</v>
@@ -1181,10 +1187,10 @@
         <v>23</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T7" t="s">
         <v>6</v>
@@ -1195,16 +1201,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>24</v>
@@ -1222,13 +1228,13 @@
         <v>20</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>21</v>
@@ -1240,10 +1246,10 @@
         <v>23</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T8" t="s">
         <v>6</v>
@@ -1254,16 +1260,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>24</v>
@@ -1281,13 +1287,13 @@
         <v>20</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>21</v>
@@ -1299,10 +1305,10 @@
         <v>23</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T9" t="s">
         <v>6</v>
@@ -1313,16 +1319,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>24</v>
@@ -1340,13 +1346,13 @@
         <v>20</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>21</v>
@@ -1358,10 +1364,10 @@
         <v>23</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T10" t="s">
         <v>6</v>
@@ -1372,16 +1378,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>24</v>
@@ -1399,13 +1405,13 @@
         <v>20</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>21</v>
@@ -1417,10 +1423,10 @@
         <v>23</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T11" t="s">
         <v>6</v>
@@ -1431,16 +1437,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>24</v>
@@ -1458,13 +1464,13 @@
         <v>20</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>21</v>
@@ -1476,10 +1482,10 @@
         <v>23</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T12" t="s">
         <v>6</v>
@@ -1490,16 +1496,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>24</v>
@@ -1517,13 +1523,13 @@
         <v>20</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>21</v>
@@ -1535,10 +1541,10 @@
         <v>23</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T13" t="s">
         <v>6</v>
@@ -1549,16 +1555,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>24</v>
@@ -1576,13 +1582,13 @@
         <v>20</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>21</v>
@@ -1594,10 +1600,10 @@
         <v>23</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T14" t="s">
         <v>6</v>
@@ -1608,16 +1614,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -1635,13 +1641,13 @@
         <v>20</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>21</v>
@@ -1653,10 +1659,10 @@
         <v>23</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T15" t="s">
         <v>6</v>
@@ -1667,16 +1673,16 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -1694,13 +1700,13 @@
         <v>20</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>21</v>
@@ -1712,10 +1718,10 @@
         <v>23</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T16" t="s">
         <v>6</v>
